--- a/ExcelToCsv/config/EXCEL_DATA.xlsx
+++ b/ExcelToCsv/config/EXCEL_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyY\git\CarsExcel\ExcelToCsv\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD3FCD-5407-4512-AE9F-AAACC487298D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32727A-CAEC-4884-89E5-238BF299928E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="660" windowWidth="16890" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">Mercedes </t>
   </si>
@@ -36,28 +36,49 @@
     <t>GLC 330D</t>
   </si>
   <si>
-    <t>GLE 220D</t>
-  </si>
-  <si>
-    <t>GLD 450</t>
-  </si>
-  <si>
-    <t>Hatchback</t>
-  </si>
-  <si>
-    <t>E class</t>
-  </si>
-  <si>
-    <t>GLC 200</t>
-  </si>
-  <si>
-    <t>C class</t>
-  </si>
-  <si>
-    <t>Coupe</t>
-  </si>
-  <si>
-    <t>530 D</t>
+    <t xml:space="preserve">Acura  </t>
+  </si>
+  <si>
+    <t>MDX</t>
+  </si>
+  <si>
+    <t>Crossover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honda </t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Compact Suv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Rover </t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End </t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -378,7 +399,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,35 +420,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,32 +456,32 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCsv/config/EXCEL_DATA.xlsx
+++ b/ExcelToCsv/config/EXCEL_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyY\git\CarsExcel\ExcelToCsv\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32727A-CAEC-4884-89E5-238BF299928E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63CC7E-A898-423D-90E7-301EF0B62C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="660" windowWidth="16890" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Mercedes </t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan </t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +456,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
